--- a/df_Merge_ASDnVehiclenCompany_noMissingCol.xlsx
+++ b/df_Merge_ASDnVehiclenCompany_noMissingCol.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacky\Documents\Python\tractor sales forecast\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacky\Documents\Python\DataScienceProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DE1A6E-852D-408F-AD68-4DE04D34407C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{654FAABE-60D4-4573-9D70-A64D0DA39AAA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22284" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22260" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2892,11 +2892,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BH402"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AW1" sqref="AW1:AW1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AJ382" workbookViewId="0">
+      <selection activeCell="AQ382" sqref="AQ1:AQ1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="59" max="59" width="19.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:60" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -3253,7 +3256,7 @@
         <v>8757</v>
       </c>
       <c r="BG2">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="BH2">
         <v>497</v>
@@ -3435,7 +3438,7 @@
         <v>4973</v>
       </c>
       <c r="BG3">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="BH3">
         <v>450</v>
@@ -3799,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="BG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH5">
         <v>216</v>
@@ -3981,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="BG6">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="BH6">
         <v>920</v>
@@ -4163,7 +4166,7 @@
         <v>11079</v>
       </c>
       <c r="BG7">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="BH7">
         <v>1596</v>
@@ -4345,7 +4348,7 @@
         <v>5097</v>
       </c>
       <c r="BG8">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="BH8">
         <v>399</v>
@@ -4527,7 +4530,7 @@
         <v>0</v>
       </c>
       <c r="BG9">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BH9">
         <v>527</v>
@@ -6347,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="BG19">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="BH19">
         <v>115</v>
@@ -6529,7 +6532,7 @@
         <v>3856</v>
       </c>
       <c r="BG20">
-        <v>29</v>
+        <v>88</v>
       </c>
       <c r="BH20">
         <v>1134</v>
@@ -7257,7 +7260,7 @@
         <v>2242</v>
       </c>
       <c r="BG24">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="BH24">
         <v>215</v>
@@ -7439,7 +7442,7 @@
         <v>8597</v>
       </c>
       <c r="BG25">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="BH25">
         <v>240</v>
@@ -7803,7 +7806,7 @@
         <v>4807</v>
       </c>
       <c r="BG27">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="BH27">
         <v>870</v>
@@ -8531,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="BG31">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="BH31">
         <v>896</v>
@@ -8713,7 +8716,7 @@
         <v>0</v>
       </c>
       <c r="BG32">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BH32">
         <v>1121</v>
@@ -8895,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="BG33">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BH33">
         <v>788</v>
@@ -9077,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="BG34">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="BH34">
         <v>1004</v>
@@ -9441,7 +9444,7 @@
         <v>0</v>
       </c>
       <c r="BG36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH36">
         <v>418</v>
@@ -9623,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="BG37">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="BH37">
         <v>1351</v>
@@ -9805,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="BG38">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BH38">
         <v>1240</v>
@@ -9987,7 +9990,7 @@
         <v>0</v>
       </c>
       <c r="BG39">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="BH39">
         <v>1838</v>
@@ -10169,7 +10172,7 @@
         <v>0</v>
       </c>
       <c r="BG40">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="BH40">
         <v>932</v>
@@ -10351,7 +10354,7 @@
         <v>0</v>
       </c>
       <c r="BG41">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="BH41">
         <v>1131</v>
@@ -10533,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="BG42">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="BH42">
         <v>992</v>
@@ -10715,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="BG43">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="BH43">
         <v>1388</v>
@@ -11079,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="BG45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH45">
         <v>803</v>
@@ -11261,7 +11264,7 @@
         <v>0</v>
       </c>
       <c r="BG46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH46">
         <v>145</v>
@@ -11443,7 +11446,7 @@
         <v>0</v>
       </c>
       <c r="BG47">
-        <v>82</v>
+        <v>206</v>
       </c>
       <c r="BH47">
         <v>1576</v>
@@ -11625,7 +11628,7 @@
         <v>0</v>
       </c>
       <c r="BG48">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="BH48">
         <v>1703</v>
@@ -11807,7 +11810,7 @@
         <v>0</v>
       </c>
       <c r="BG49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BH49">
         <v>1057</v>
@@ -11989,7 +11992,7 @@
         <v>0</v>
       </c>
       <c r="BG50">
-        <v>36</v>
+        <v>82</v>
       </c>
       <c r="BH50">
         <v>1913</v>
@@ -12171,7 +12174,7 @@
         <v>0</v>
       </c>
       <c r="BG51">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="BH51">
         <v>1195</v>
@@ -12353,7 +12356,7 @@
         <v>0</v>
       </c>
       <c r="BG52">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BH52">
         <v>540</v>
@@ -12535,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="BG53">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="BH53">
         <v>1654</v>
@@ -12899,7 +12902,7 @@
         <v>0</v>
       </c>
       <c r="BG55">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="BH55">
         <v>284</v>
@@ -13081,7 +13084,7 @@
         <v>0</v>
       </c>
       <c r="BG56">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BH56">
         <v>938</v>
@@ -13809,7 +13812,7 @@
         <v>0</v>
       </c>
       <c r="BG60">
-        <v>52</v>
+        <v>99</v>
       </c>
       <c r="BH60">
         <v>959</v>
@@ -13991,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="BG61">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="BH61">
         <v>1084</v>
@@ -14355,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="BG63">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BH63">
         <v>578</v>
@@ -14537,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="BG64">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="BH64">
         <v>580</v>
@@ -14719,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="BG65">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BH65">
         <v>508</v>
@@ -15083,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="BG67">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="BH67">
         <v>1806</v>
@@ -15265,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="BG68">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="BH68">
         <v>1059</v>
@@ -15447,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="BG69">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BH69">
         <v>2363</v>
@@ -15629,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="BG70">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="BH70">
         <v>1067</v>
@@ -15811,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="BG71">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BH71">
         <v>1173</v>
@@ -16175,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="BG73">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="BH73">
         <v>1154</v>
@@ -16539,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="BG75">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BH75">
         <v>1498</v>
@@ -16903,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="BG77">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="BH77">
         <v>1325</v>
@@ -17449,7 +17452,7 @@
         <v>1650</v>
       </c>
       <c r="BG80">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="BH80">
         <v>712</v>
@@ -17631,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="BG81">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="BH81">
         <v>659</v>
@@ -17813,7 +17816,7 @@
         <v>6617</v>
       </c>
       <c r="BG82">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="BH82">
         <v>1566</v>
@@ -18723,7 +18726,7 @@
         <v>24617</v>
       </c>
       <c r="BG87">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="BH87">
         <v>1577</v>
@@ -18905,7 +18908,7 @@
         <v>0</v>
       </c>
       <c r="BG88">
-        <v>88</v>
+        <v>151</v>
       </c>
       <c r="BH88">
         <v>1491</v>
@@ -19087,7 +19090,7 @@
         <v>34793</v>
       </c>
       <c r="BG89">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="BH89">
         <v>1873</v>
@@ -19269,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="BG90">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="BH90">
         <v>1038</v>
@@ -19451,7 +19454,7 @@
         <v>4907</v>
       </c>
       <c r="BG91">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BH91">
         <v>702</v>
@@ -19633,7 +19636,7 @@
         <v>33659</v>
       </c>
       <c r="BG92">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="BH92">
         <v>847</v>
@@ -19815,7 +19818,7 @@
         <v>52513</v>
       </c>
       <c r="BG93">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="BH93">
         <v>2083</v>
@@ -19997,7 +20000,7 @@
         <v>42836</v>
       </c>
       <c r="BG94">
-        <v>37</v>
+        <v>93</v>
       </c>
       <c r="BH94">
         <v>1659</v>
@@ -20179,7 +20182,7 @@
         <v>21490</v>
       </c>
       <c r="BG95">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="BH95">
         <v>1089</v>
@@ -20361,7 +20364,7 @@
         <v>11171</v>
       </c>
       <c r="BG96">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="BH96">
         <v>962</v>
@@ -20543,7 +20546,7 @@
         <v>19813</v>
       </c>
       <c r="BG97">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="BH97">
         <v>1276</v>
@@ -20725,7 +20728,7 @@
         <v>3186</v>
       </c>
       <c r="BG98">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="BH98">
         <v>830</v>
@@ -21453,7 +21456,7 @@
         <v>34643</v>
       </c>
       <c r="BG102">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="BH102">
         <v>875</v>
@@ -21817,7 +21820,7 @@
         <v>20537</v>
       </c>
       <c r="BG104">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="BH104">
         <v>462</v>
@@ -21999,7 +22002,7 @@
         <v>17343</v>
       </c>
       <c r="BG105">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="BH105">
         <v>945</v>
@@ -22181,7 +22184,7 @@
         <v>11444</v>
       </c>
       <c r="BG106">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="BH106">
         <v>468</v>
@@ -22363,7 +22366,7 @@
         <v>25159</v>
       </c>
       <c r="BG107">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="BH107">
         <v>622</v>
@@ -22545,7 +22548,7 @@
         <v>33797</v>
       </c>
       <c r="BG108">
-        <v>57</v>
+        <v>123</v>
       </c>
       <c r="BH108">
         <v>2583</v>
@@ -22727,7 +22730,7 @@
         <v>41150</v>
       </c>
       <c r="BG109">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="BH109">
         <v>1565</v>
@@ -22909,7 +22912,7 @@
         <v>11414</v>
       </c>
       <c r="BG110">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="BH110">
         <v>687</v>
@@ -23091,7 +23094,7 @@
         <v>19585</v>
       </c>
       <c r="BG111">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="BH111">
         <v>835</v>
@@ -23273,7 +23276,7 @@
         <v>8719</v>
       </c>
       <c r="BG112">
-        <v>3</v>
+        <v>63</v>
       </c>
       <c r="BH112">
         <v>245</v>
@@ -23455,7 +23458,7 @@
         <v>20919</v>
       </c>
       <c r="BG113">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="BH113">
         <v>715</v>
@@ -23637,7 +23640,7 @@
         <v>10142</v>
       </c>
       <c r="BG114">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="BH114">
         <v>504</v>
@@ -23819,7 +23822,7 @@
         <v>18219</v>
       </c>
       <c r="BG115">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BH115">
         <v>591</v>
@@ -24001,7 +24004,7 @@
         <v>30376</v>
       </c>
       <c r="BG116">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="BH116">
         <v>1793</v>
@@ -24183,7 +24186,7 @@
         <v>14743</v>
       </c>
       <c r="BG117">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="BH117">
         <v>1270</v>
@@ -24365,7 +24368,7 @@
         <v>27389</v>
       </c>
       <c r="BG118">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="BH118">
         <v>540</v>
@@ -24547,7 +24550,7 @@
         <v>33884</v>
       </c>
       <c r="BG119">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="BH119">
         <v>756</v>
@@ -24911,7 +24914,7 @@
         <v>28499</v>
       </c>
       <c r="BG121">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="BH121">
         <v>2579</v>
@@ -25093,7 +25096,7 @@
         <v>21063</v>
       </c>
       <c r="BG122">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="BH122">
         <v>948</v>
@@ -25275,7 +25278,7 @@
         <v>18531</v>
       </c>
       <c r="BG123">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="BH123">
         <v>1730</v>
@@ -25457,7 +25460,7 @@
         <v>33310</v>
       </c>
       <c r="BG124">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="BH124">
         <v>1135</v>
@@ -25639,7 +25642,7 @@
         <v>8304</v>
       </c>
       <c r="BG125">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="BH125">
         <v>1034</v>
@@ -26185,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="BG128">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH128">
         <v>90</v>
@@ -26731,7 +26734,7 @@
         <v>5648</v>
       </c>
       <c r="BG131">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="BH131">
         <v>1188</v>
@@ -26913,7 +26916,7 @@
         <v>14268</v>
       </c>
       <c r="BG132">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="BH132">
         <v>1118</v>
@@ -27095,7 +27098,7 @@
         <v>14317</v>
       </c>
       <c r="BG133">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="BH133">
         <v>2231</v>
@@ -27277,7 +27280,7 @@
         <v>23791</v>
       </c>
       <c r="BG134">
-        <v>369</v>
+        <v>552</v>
       </c>
       <c r="BH134">
         <v>3544</v>
@@ -27459,7 +27462,7 @@
         <v>9912</v>
       </c>
       <c r="BG135">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH135">
         <v>368</v>
@@ -27641,7 +27644,7 @@
         <v>4586</v>
       </c>
       <c r="BG136">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="BH136">
         <v>1215</v>
@@ -27823,7 +27826,7 @@
         <v>4205</v>
       </c>
       <c r="BG137">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH137">
         <v>781</v>
@@ -28005,7 +28008,7 @@
         <v>12217</v>
       </c>
       <c r="BG138">
-        <v>23</v>
+        <v>357</v>
       </c>
       <c r="BH138">
         <v>1112</v>
@@ -28187,7 +28190,7 @@
         <v>16701</v>
       </c>
       <c r="BG139">
-        <v>62</v>
+        <v>465</v>
       </c>
       <c r="BH139">
         <v>2466</v>
@@ -28369,7 +28372,7 @@
         <v>14726</v>
       </c>
       <c r="BG140">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="BH140">
         <v>1440</v>
@@ -28733,7 +28736,7 @@
         <v>6325</v>
       </c>
       <c r="BG142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH142">
         <v>448</v>
@@ -31099,7 +31102,7 @@
         <v>7553</v>
       </c>
       <c r="BG155">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="BH155">
         <v>1811</v>
@@ -31281,7 +31284,7 @@
         <v>1571</v>
       </c>
       <c r="BG156">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="BH156">
         <v>888</v>
@@ -31463,7 +31466,7 @@
         <v>4034</v>
       </c>
       <c r="BG157">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="BH157">
         <v>1758</v>
@@ -31645,7 +31648,7 @@
         <v>2287</v>
       </c>
       <c r="BG158">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="BH158">
         <v>1230</v>
@@ -31827,7 +31830,7 @@
         <v>2876</v>
       </c>
       <c r="BG159">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="BH159">
         <v>972</v>
@@ -32555,7 +32558,7 @@
         <v>900</v>
       </c>
       <c r="BG163">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="BH163">
         <v>637</v>
@@ -32737,7 +32740,7 @@
         <v>10472</v>
       </c>
       <c r="BG164">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="BH164">
         <v>926</v>
@@ -32919,7 +32922,7 @@
         <v>9521</v>
       </c>
       <c r="BG165">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="BH165">
         <v>1142</v>
@@ -33101,7 +33104,7 @@
         <v>6117</v>
       </c>
       <c r="BG166">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="BH166">
         <v>1007</v>
@@ -33283,7 +33286,7 @@
         <v>2202</v>
       </c>
       <c r="BG167">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="BH167">
         <v>703</v>
@@ -33465,7 +33468,7 @@
         <v>1028</v>
       </c>
       <c r="BG168">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BH168">
         <v>765</v>
@@ -33829,7 +33832,7 @@
         <v>7779</v>
       </c>
       <c r="BG170">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="BH170">
         <v>1025</v>
@@ -34375,7 +34378,7 @@
         <v>0</v>
       </c>
       <c r="BG173">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BH173">
         <v>422</v>
@@ -34557,7 +34560,7 @@
         <v>1756</v>
       </c>
       <c r="BG174">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="BH174">
         <v>2198</v>
@@ -34739,7 +34742,7 @@
         <v>2534</v>
       </c>
       <c r="BG175">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="BH175">
         <v>1532</v>
@@ -35103,7 +35106,7 @@
         <v>2412</v>
       </c>
       <c r="BG177">
-        <v>68</v>
+        <v>168</v>
       </c>
       <c r="BH177">
         <v>2759</v>
@@ -35285,7 +35288,7 @@
         <v>4222</v>
       </c>
       <c r="BG178">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="BH178">
         <v>1993</v>
@@ -35467,7 +35470,7 @@
         <v>1033</v>
       </c>
       <c r="BG179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH179">
         <v>292</v>
@@ -35649,7 +35652,7 @@
         <v>3775</v>
       </c>
       <c r="BG180">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="BH180">
         <v>2069</v>
@@ -36013,7 +36016,7 @@
         <v>9808</v>
       </c>
       <c r="BG182">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="BH182">
         <v>1238</v>
@@ -36195,7 +36198,7 @@
         <v>10894</v>
       </c>
       <c r="BG183">
-        <v>17</v>
+        <v>98</v>
       </c>
       <c r="BH183">
         <v>1056</v>
@@ -36377,7 +36380,7 @@
         <v>7971</v>
       </c>
       <c r="BG184">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="BH184">
         <v>804</v>
@@ -36559,7 +36562,7 @@
         <v>2491</v>
       </c>
       <c r="BG185">
-        <v>52</v>
+        <v>131</v>
       </c>
       <c r="BH185">
         <v>1418</v>
@@ -37105,7 +37108,7 @@
         <v>0</v>
       </c>
       <c r="BG188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH188">
         <v>111</v>
@@ -37287,7 +37290,7 @@
         <v>0</v>
       </c>
       <c r="BG189">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH189">
         <v>217</v>
@@ -37833,7 +37836,7 @@
         <v>5288</v>
       </c>
       <c r="BG192">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="BH192">
         <v>1489</v>
@@ -38197,7 +38200,7 @@
         <v>0</v>
       </c>
       <c r="BG194">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="BH194">
         <v>977</v>
@@ -38379,7 +38382,7 @@
         <v>0</v>
       </c>
       <c r="BG195">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="BH195">
         <v>869</v>
@@ -38561,7 +38564,7 @@
         <v>7585</v>
       </c>
       <c r="BG196">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="BH196">
         <v>1572</v>
@@ -38743,7 +38746,7 @@
         <v>1698</v>
       </c>
       <c r="BG197">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BH197">
         <v>525</v>
@@ -39653,7 +39656,7 @@
         <v>3765</v>
       </c>
       <c r="BG202">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BH202">
         <v>716</v>
@@ -39835,7 +39838,7 @@
         <v>3197</v>
       </c>
       <c r="BG203">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="BH203">
         <v>1024</v>
@@ -40017,7 +40020,7 @@
         <v>1547</v>
       </c>
       <c r="BG204">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="BH204">
         <v>489</v>
@@ -40199,7 +40202,7 @@
         <v>0</v>
       </c>
       <c r="BG205">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH205">
         <v>292</v>
@@ -40381,7 +40384,7 @@
         <v>0</v>
       </c>
       <c r="BG206">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="BH206">
         <v>837</v>
@@ -41109,7 +41112,7 @@
         <v>4075</v>
       </c>
       <c r="BG210">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="BH210">
         <v>547</v>
@@ -41291,7 +41294,7 @@
         <v>10028</v>
       </c>
       <c r="BG211">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="BH211">
         <v>1137</v>
@@ -41473,7 +41476,7 @@
         <v>0</v>
       </c>
       <c r="BG212">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="BH212">
         <v>836</v>
@@ -41837,7 +41840,7 @@
         <v>0</v>
       </c>
       <c r="BG214">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="BH214">
         <v>890</v>
@@ -42019,7 +42022,7 @@
         <v>7075</v>
       </c>
       <c r="BG215">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="BH215">
         <v>1297</v>
@@ -42201,7 +42204,7 @@
         <v>14890</v>
       </c>
       <c r="BG216">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="BH216">
         <v>980</v>
@@ -42383,7 +42386,7 @@
         <v>0</v>
       </c>
       <c r="BG217">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH217">
         <v>491</v>
@@ -42565,7 +42568,7 @@
         <v>4336</v>
       </c>
       <c r="BG218">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="BH218">
         <v>1279</v>
@@ -42747,7 +42750,7 @@
         <v>6654</v>
       </c>
       <c r="BG219">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="BH219">
         <v>620</v>
@@ -42929,7 +42932,7 @@
         <v>10765</v>
       </c>
       <c r="BG220">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="BH220">
         <v>830</v>
@@ -43111,7 +43114,7 @@
         <v>0</v>
       </c>
       <c r="BG221">
-        <v>33</v>
+        <v>97</v>
       </c>
       <c r="BH221">
         <v>1225</v>
@@ -43293,7 +43296,7 @@
         <v>8341</v>
       </c>
       <c r="BG222">
-        <v>59</v>
+        <v>108</v>
       </c>
       <c r="BH222">
         <v>1177</v>
@@ -43475,7 +43478,7 @@
         <v>0</v>
       </c>
       <c r="BG223">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="BH223">
         <v>476</v>
@@ -43839,7 +43842,7 @@
         <v>0</v>
       </c>
       <c r="BG225">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="BH225">
         <v>390</v>
@@ -44021,7 +44024,7 @@
         <v>0</v>
       </c>
       <c r="BG226">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BH226">
         <v>450</v>
@@ -44203,7 +44206,7 @@
         <v>8680</v>
       </c>
       <c r="BG227">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BH227">
         <v>588</v>
@@ -44567,7 +44570,7 @@
         <v>5552</v>
       </c>
       <c r="BG229">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="BH229">
         <v>401</v>
@@ -44749,7 +44752,7 @@
         <v>7009</v>
       </c>
       <c r="BG230">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="BH230">
         <v>787</v>
@@ -44931,7 +44934,7 @@
         <v>2047</v>
       </c>
       <c r="BG231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH231">
         <v>331</v>
@@ -45113,7 +45116,7 @@
         <v>2386</v>
       </c>
       <c r="BG232">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="BH232">
         <v>1627</v>
@@ -45295,7 +45298,7 @@
         <v>0</v>
       </c>
       <c r="BG233">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="BH233">
         <v>1059</v>
@@ -45841,7 +45844,7 @@
         <v>1802</v>
       </c>
       <c r="BG236">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BH236">
         <v>806</v>
@@ -46205,7 +46208,7 @@
         <v>654</v>
       </c>
       <c r="BG238">
-        <v>69</v>
+        <v>307</v>
       </c>
       <c r="BH238">
         <v>1717</v>
@@ -46569,7 +46572,7 @@
         <v>2642</v>
       </c>
       <c r="BG240">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="BH240">
         <v>798</v>
@@ -46751,7 +46754,7 @@
         <v>2636</v>
       </c>
       <c r="BG241">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="BH241">
         <v>1764</v>
@@ -46933,7 +46936,7 @@
         <v>0</v>
       </c>
       <c r="BG242">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="BH242">
         <v>2163</v>
@@ -47479,7 +47482,7 @@
         <v>0</v>
       </c>
       <c r="BG245">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="BH245">
         <v>1134</v>
@@ -47661,7 +47664,7 @@
         <v>0</v>
       </c>
       <c r="BG246">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="BH246">
         <v>382</v>
@@ -48207,7 +48210,7 @@
         <v>0</v>
       </c>
       <c r="BG249">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="BH249">
         <v>1402</v>
@@ -48571,7 +48574,7 @@
         <v>0</v>
       </c>
       <c r="BG251">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="BH251">
         <v>1780</v>
@@ -48753,7 +48756,7 @@
         <v>0</v>
       </c>
       <c r="BG252">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="BH252">
         <v>2834</v>
@@ -48935,7 +48938,7 @@
         <v>0</v>
       </c>
       <c r="BG253">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="BH253">
         <v>2643</v>
@@ -49299,7 +49302,7 @@
         <v>1286</v>
       </c>
       <c r="BG255">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="BH255">
         <v>2399</v>
@@ -49481,7 +49484,7 @@
         <v>6081</v>
       </c>
       <c r="BG256">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="BH256">
         <v>2092</v>
@@ -49663,7 +49666,7 @@
         <v>0</v>
       </c>
       <c r="BG257">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="BH257">
         <v>1898</v>
@@ -50391,7 +50394,7 @@
         <v>0</v>
       </c>
       <c r="BG261">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="BH261">
         <v>1395</v>
@@ -50573,7 +50576,7 @@
         <v>0</v>
       </c>
       <c r="BG262">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="BH262">
         <v>1912</v>
@@ -50755,7 +50758,7 @@
         <v>0</v>
       </c>
       <c r="BG263">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="BH263">
         <v>1872</v>
@@ -50937,7 +50940,7 @@
         <v>1892</v>
       </c>
       <c r="BG264">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="BH264">
         <v>1248</v>
@@ -51301,7 +51304,7 @@
         <v>0</v>
       </c>
       <c r="BG266">
-        <v>99</v>
+        <v>301</v>
       </c>
       <c r="BH266">
         <v>2234</v>
@@ -51483,7 +51486,7 @@
         <v>842</v>
       </c>
       <c r="BG267">
-        <v>39</v>
+        <v>87</v>
       </c>
       <c r="BH267">
         <v>823</v>
@@ -51665,7 +51668,7 @@
         <v>0</v>
       </c>
       <c r="BG268">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BH268">
         <v>184</v>
@@ -52393,7 +52396,7 @@
         <v>9446</v>
       </c>
       <c r="BG272">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="BH272">
         <v>833</v>
@@ -52575,7 +52578,7 @@
         <v>3114</v>
       </c>
       <c r="BG273">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="BH273">
         <v>1413</v>
@@ -52757,7 +52760,7 @@
         <v>2795</v>
       </c>
       <c r="BG274">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BH274">
         <v>585</v>
@@ -52939,7 +52942,7 @@
         <v>1156</v>
       </c>
       <c r="BG275">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BH275">
         <v>889</v>
@@ -53121,7 +53124,7 @@
         <v>0</v>
       </c>
       <c r="BG276">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="BH276">
         <v>1469</v>
@@ -53849,7 +53852,7 @@
         <v>643</v>
       </c>
       <c r="BG280">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BH280">
         <v>423</v>
@@ -54031,7 +54034,7 @@
         <v>0</v>
       </c>
       <c r="BG281">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BH281">
         <v>283</v>
@@ -54395,7 +54398,7 @@
         <v>0</v>
       </c>
       <c r="BG283">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="BH283">
         <v>327</v>
@@ -54577,7 +54580,7 @@
         <v>0</v>
       </c>
       <c r="BG284">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH284">
         <v>545</v>
@@ -54941,7 +54944,7 @@
         <v>5355</v>
       </c>
       <c r="BG286">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="BH286">
         <v>2576</v>
@@ -55123,7 +55126,7 @@
         <v>1876</v>
       </c>
       <c r="BG287">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BH287">
         <v>466</v>
@@ -55669,7 +55672,7 @@
         <v>5352</v>
       </c>
       <c r="BG290">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="BH290">
         <v>1169</v>
@@ -56033,7 +56036,7 @@
         <v>0</v>
       </c>
       <c r="BG292">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="BH292">
         <v>957</v>
@@ -56943,7 +56946,7 @@
         <v>0</v>
       </c>
       <c r="BG297">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH297">
         <v>620</v>
@@ -57125,7 +57128,7 @@
         <v>0</v>
       </c>
       <c r="BG298">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="BH298">
         <v>756</v>
@@ -57307,7 +57310,7 @@
         <v>0</v>
       </c>
       <c r="BG299">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="BH299">
         <v>699</v>
@@ -57853,7 +57856,7 @@
         <v>8349</v>
       </c>
       <c r="BG302">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BH302">
         <v>748</v>
@@ -58035,7 +58038,7 @@
         <v>7115</v>
       </c>
       <c r="BG303">
-        <v>75</v>
+        <v>194</v>
       </c>
       <c r="BH303">
         <v>890</v>
@@ -58217,7 +58220,7 @@
         <v>0</v>
       </c>
       <c r="BG304">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="BH304">
         <v>1085</v>
@@ -59127,7 +59130,7 @@
         <v>0</v>
       </c>
       <c r="BG309">
-        <v>67</v>
+        <v>317</v>
       </c>
       <c r="BH309">
         <v>1250</v>
@@ -59309,7 +59312,7 @@
         <v>4090</v>
       </c>
       <c r="BG310">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="BH310">
         <v>1378</v>
@@ -59491,7 +59494,7 @@
         <v>4124</v>
       </c>
       <c r="BG311">
-        <v>64</v>
+        <v>150</v>
       </c>
       <c r="BH311">
         <v>1736</v>
@@ -59673,7 +59676,7 @@
         <v>0</v>
       </c>
       <c r="BG312">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="BH312">
         <v>724</v>
@@ -59855,7 +59858,7 @@
         <v>0</v>
       </c>
       <c r="BG313">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BH313">
         <v>595</v>
@@ -60219,7 +60222,7 @@
         <v>1319</v>
       </c>
       <c r="BG315">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="BH315">
         <v>3139</v>
@@ -60401,7 +60404,7 @@
         <v>0</v>
       </c>
       <c r="BG316">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="BH316">
         <v>1382</v>
@@ -60583,7 +60586,7 @@
         <v>4414</v>
       </c>
       <c r="BG317">
-        <v>95</v>
+        <v>121</v>
       </c>
       <c r="BH317">
         <v>1627</v>
@@ -60765,7 +60768,7 @@
         <v>0</v>
       </c>
       <c r="BG318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH318">
         <v>1267</v>
@@ -60947,7 +60950,7 @@
         <v>2334</v>
       </c>
       <c r="BG319">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BH319">
         <v>218</v>
@@ -61129,7 +61132,7 @@
         <v>4463</v>
       </c>
       <c r="BG320">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH320">
         <v>322</v>
@@ -61493,7 +61496,7 @@
         <v>5435</v>
       </c>
       <c r="BG322">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BH322">
         <v>319</v>
@@ -62039,7 +62042,7 @@
         <v>0</v>
       </c>
       <c r="BG325">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH325">
         <v>995</v>
@@ -62585,7 +62588,7 @@
         <v>0</v>
       </c>
       <c r="BG328">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BH328">
         <v>73</v>
@@ -62949,7 +62952,7 @@
         <v>41297</v>
       </c>
       <c r="BG330">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BH330">
         <v>356</v>
@@ -63131,7 +63134,7 @@
         <v>60990</v>
       </c>
       <c r="BG331">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="BH331">
         <v>773</v>
@@ -63313,7 +63316,7 @@
         <v>79120</v>
       </c>
       <c r="BG332">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="BH332">
         <v>1222</v>
@@ -63495,7 +63498,7 @@
         <v>76169</v>
       </c>
       <c r="BG333">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="BH333">
         <v>629</v>
@@ -63677,7 +63680,7 @@
         <v>112240</v>
       </c>
       <c r="BG334">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="BH334">
         <v>752</v>
@@ -63859,7 +63862,7 @@
         <v>53158</v>
       </c>
       <c r="BG335">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BH335">
         <v>468</v>
@@ -64405,7 +64408,7 @@
         <v>113157</v>
       </c>
       <c r="BG338">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="BH338">
         <v>1277</v>
@@ -64587,7 +64590,7 @@
         <v>88781</v>
       </c>
       <c r="BG339">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="BH339">
         <v>1025</v>
@@ -64769,7 +64772,7 @@
         <v>118854</v>
       </c>
       <c r="BG340">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BH340">
         <v>713</v>
@@ -65133,7 +65136,7 @@
         <v>81597</v>
       </c>
       <c r="BG342">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BH342">
         <v>764</v>
@@ -65315,7 +65318,7 @@
         <v>162363</v>
       </c>
       <c r="BG343">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="BH343">
         <v>1236</v>
@@ -65861,7 +65864,7 @@
         <v>256631</v>
       </c>
       <c r="BG346">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="BH346">
         <v>2562</v>
@@ -66043,7 +66046,7 @@
         <v>196832</v>
       </c>
       <c r="BG347">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="BH347">
         <v>2094</v>
@@ -66225,7 +66228,7 @@
         <v>183902</v>
       </c>
       <c r="BG348">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="BH348">
         <v>1443</v>
@@ -66407,7 +66410,7 @@
         <v>0</v>
       </c>
       <c r="BG349">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="BH349">
         <v>1042</v>
@@ -66589,7 +66592,7 @@
         <v>203776</v>
       </c>
       <c r="BG350">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="BH350">
         <v>1630</v>
@@ -66771,7 +66774,7 @@
         <v>235686</v>
       </c>
       <c r="BG351">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="BH351">
         <v>1674</v>
@@ -67317,7 +67320,7 @@
         <v>110279</v>
       </c>
       <c r="BG354">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="BH354">
         <v>2090</v>
@@ -67499,7 +67502,7 @@
         <v>38589</v>
       </c>
       <c r="BG355">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="BH355">
         <v>938</v>
@@ -67863,7 +67866,7 @@
         <v>3345</v>
       </c>
       <c r="BG357">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH357">
         <v>174</v>
@@ -68045,7 +68048,7 @@
         <v>79820</v>
       </c>
       <c r="BG358">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BH358">
         <v>1477</v>
@@ -68227,7 +68230,7 @@
         <v>70780</v>
       </c>
       <c r="BG359">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="BH359">
         <v>942</v>
@@ -68409,7 +68412,7 @@
         <v>76737</v>
       </c>
       <c r="BG360">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="BH360">
         <v>1252</v>
@@ -68591,7 +68594,7 @@
         <v>58537</v>
       </c>
       <c r="BG361">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BH361">
         <v>910</v>
@@ -68773,7 +68776,7 @@
         <v>7307</v>
       </c>
       <c r="BG362">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH362">
         <v>307</v>
@@ -68955,7 +68958,7 @@
         <v>79683</v>
       </c>
       <c r="BG363">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="BH363">
         <v>1664</v>
@@ -69137,7 +69140,7 @@
         <v>108578</v>
       </c>
       <c r="BG364">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="BH364">
         <v>1654</v>
@@ -69865,7 +69868,7 @@
         <v>107569</v>
       </c>
       <c r="BG368">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BH368">
         <v>741</v>
@@ -70047,7 +70050,7 @@
         <v>79888</v>
       </c>
       <c r="BG369">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="BH369">
         <v>806</v>
@@ -70229,7 +70232,7 @@
         <v>131596</v>
       </c>
       <c r="BG370">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="BH370">
         <v>1693</v>
@@ -70411,7 +70414,7 @@
         <v>82977</v>
       </c>
       <c r="BG371">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="BH371">
         <v>1065</v>
@@ -70593,7 +70596,7 @@
         <v>93722</v>
       </c>
       <c r="BG372">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BH372">
         <v>697</v>
@@ -70957,7 +70960,7 @@
         <v>64406</v>
       </c>
       <c r="BG374">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="BH374">
         <v>565</v>
@@ -71139,7 +71142,7 @@
         <v>93546</v>
       </c>
       <c r="BG375">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="BH375">
         <v>930</v>
@@ -71321,7 +71324,7 @@
         <v>92937</v>
       </c>
       <c r="BG376">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="BH376">
         <v>1002</v>
@@ -71503,7 +71506,7 @@
         <v>127901</v>
       </c>
       <c r="BG377">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="BH377">
         <v>1044</v>
@@ -71685,7 +71688,7 @@
         <v>80983</v>
       </c>
       <c r="BG378">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="BH378">
         <v>628</v>
@@ -71867,7 +71870,7 @@
         <v>0</v>
       </c>
       <c r="BG379">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH379">
         <v>174</v>
@@ -72049,7 +72052,7 @@
         <v>0</v>
       </c>
       <c r="BG380">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BH380">
         <v>153</v>
@@ -72777,7 +72780,7 @@
         <v>5272</v>
       </c>
       <c r="BG384">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BH384">
         <v>52</v>
@@ -73141,7 +73144,7 @@
         <v>32027</v>
       </c>
       <c r="BG386">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="BH386">
         <v>357</v>
@@ -73505,7 +73508,7 @@
         <v>59112</v>
       </c>
       <c r="BG388">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="BH388">
         <v>760</v>
@@ -73687,7 +73690,7 @@
         <v>61086</v>
       </c>
       <c r="BG389">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BH389">
         <v>366</v>
@@ -73869,7 +73872,7 @@
         <v>34796</v>
       </c>
       <c r="BG390">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BH390">
         <v>445</v>
@@ -74051,7 +74054,7 @@
         <v>45286</v>
       </c>
       <c r="BG391">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BH391">
         <v>578</v>
@@ -74233,7 +74236,7 @@
         <v>51437</v>
       </c>
       <c r="BG392">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="BH392">
         <v>372</v>
@@ -74779,7 +74782,7 @@
         <v>0</v>
       </c>
       <c r="BG395">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="BH395">
         <v>479</v>
@@ -75325,7 +75328,7 @@
         <v>34370</v>
       </c>
       <c r="BG398">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BH398">
         <v>527</v>
@@ -75507,7 +75510,7 @@
         <v>43588</v>
       </c>
       <c r="BG399">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BH399">
         <v>611</v>
@@ -75689,7 +75692,7 @@
         <v>35867</v>
       </c>
       <c r="BG400">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="BH400">
         <v>839</v>
@@ -75871,7 +75874,7 @@
         <v>31573</v>
       </c>
       <c r="BG401">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BH401">
         <v>376</v>
@@ -76053,7 +76056,7 @@
         <v>30009</v>
       </c>
       <c r="BG402">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="BH402">
         <v>1325</v>
